--- a/biology/Botanique/Mélézin/Mélézin.xlsx
+++ b/biology/Botanique/Mélézin/Mélézin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9l%C3%A9zin</t>
+          <t>Mélézin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un mélézin est une forêt dominée par des mélèzes. On trouve des mélézins naturels, essentiellement dans des conditions climatiques difficiles (montagne, hautes latitudes) et sur des terrains remaniés, avant l'installation des essences climaciques. On trouve également des mélézins artificiels, qui nécessitent l'intervention humaine pour se maintenir. En effet, les mélèzes étant des espèces de lumière, ils supportent mal la concurrence des espèces d'ombre là où elle existe.
 Du fait de la chute de ses aiguilles caduques en automne, le mélézin a un sous-bois unique : le sol est recouvert d’une moquette d’aiguilles orange. Cette quantité d’aiguilles est une ressource pour les fourmis rousses, dont le nid en est essentiellement composé. On peut observer des dômes de fourmilière dépassant souvent 50 cm et mesurant jusqu’à plus de 150 cm.
